--- a/datamining/final_data/sorted2016_nltk.xlsx
+++ b/datamining/final_data/sorted2016_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AME2"/>
+  <dimension ref="A1:AKU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,29 +477,29 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>introduction</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>transfer</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>violent</t>
@@ -512,14 +512,14 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>well-being</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>gifted</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
@@ -527,29 +527,29 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>nomination</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>methods</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>nomination</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>performance</t>
@@ -577,79 +577,79 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>aurora-a</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>triarchic</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>aurora-a</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>triarchic</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>twice-exceptional</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>experiences</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>grade-skipping</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>acceleration</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>innovation</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>grade-skipping</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>media</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>verbal</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>theory</t>
@@ -657,34 +657,34 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>learner</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>oe</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>oes</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>oe</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>oes</t>
-        </is>
-      </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>successful</t>
@@ -697,82 +697,82 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>hypothesis</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>relationship</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>little-c</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>psychopathology</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>learners</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>discuss</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>academic</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>psychopathology</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>little-c</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
@@ -782,87 +782,87 @@
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>tasks</t>
+          <t>sizes</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
           <t>nongifted</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>development</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
           <t>used</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>change</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>sizes</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>attentional</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>attentional</t>
-        </is>
-      </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>population</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>science</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
@@ -872,37 +872,37 @@
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
           <t>attention</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>program</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
@@ -912,42 +912,42 @@
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>excellence</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
           <t>underrepresentation</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>excellence</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>efforts</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
@@ -957,154 +957,154 @@
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>three</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>javits</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>psychopathologies</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>psychopathologies</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>javits</t>
+          <t>social</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
+          <t>cld</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>anxiety</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>cld</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>article</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>chc</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>task</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
           <t>course</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>chc</t>
-        </is>
-      </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>conduct</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>methodology</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>field</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>inattentional</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>blindness</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
           <t>current</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>inattentional</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>blindness</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>socioemotional</t>
@@ -1112,4417 +1112,4237 @@
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
+          <t>five</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
           <t>may</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>two</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>evaluated</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>conditions</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>conditions</t>
+          <t>case</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>evaluated</t>
+          <t>size</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitabilities</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>reasons</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>persons</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>five-factor</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitable</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>facets</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitability</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>situation</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
           <t>services</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>five-factor</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitabilities</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>purpose</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>facets</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitability</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitable</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>stimuli</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>within</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>situation</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
           <t>analyses</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>stimuli</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>study</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>process</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>work</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>topics</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>across</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>methodologies</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
           <t>findings</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>different</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>methodologies</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>cartoon</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>specificity</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>also</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>topics</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>consistency</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>upper</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>consistency</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>subtest</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>differences</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>cartoon</t>
+          <t>class</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>subtest</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>upper</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>order</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
           <t>present</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>systematic</t>
-        </is>
-      </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>maladjustment</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>sustaining</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>indicators</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>disharmony</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
           <t>relationships</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>sees</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>harmony</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>vignettes</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>stereotyping</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>stereotypes</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>linguistically</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>influenced</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>regarding</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>maladjustment</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>sees</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>sustaining</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>indicators</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>cattell-horn-carroll</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>impacts</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>highly</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>yet</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>stereotypes</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>stereotyping</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>vignettes</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>harmony</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>commonly</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>average-ability</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>emotional</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>conceptions</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>interviews</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>conceptions</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>average-ability</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>disharmony</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>e.g.</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>shown</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
           <t>small</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
           <t>practice</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>random-effects</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>moderator</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>quantitative</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
           <t>heterogeneity</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>moderator</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>quantitative</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>cattell-horn-carroll</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>random-effects</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>ci</t>
-        </is>
-      </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>characterized</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>moderators</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
           <t>theories</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>ensure</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>psychometric</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>maintain</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>although</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>moderators</t>
+          <t>drawing</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>reasoning</t>
+          <t>acceptable</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>grounded</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
+          <t>corresponding</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>structural</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
           <t>like</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>characterized</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>needs</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>hinder</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>equation</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>loadings</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>modeling</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>equation</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>corresponding</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>structural</t>
-        </is>
-      </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>composed</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>acceptable</t>
+          <t>models</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>able</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>theoretical</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>socially</t>
+          <t>giftedness/talent</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>successes</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>composed</t>
+          <t>simultaneously</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>underrepresented</t>
+          <t>proactive</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>life</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>practitioners</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>proactive</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>enriched</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>conception</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>taking</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
           <t>presents</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>past</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>successes</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>highlights</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>variance</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>accompanying</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>african</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>types</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>broader</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>debated</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>definitions</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>conception</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>facilitate</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>fact</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>fostered</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>low-income</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness/talent</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>hotly</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>increasing</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>inequity</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>native</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>debated</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>broader</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>african</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>accompanying</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>hinder</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>enriched</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>courses</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>mitigate</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>taking</t>
-        </is>
-      </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>language</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>correlational</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>combination</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>inequity</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>fostered</t>
+          <t>comprehensive</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>highlights</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>hispanic</t>
+          <t>limit</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>hotly</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>60</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>facilitate</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>effectiveness/sensitivity</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>low-income</t>
+          <t>diagnostic</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>k-12</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>missed</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>integrity</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>exceed</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
+          <t>interchangeable</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>costly</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>easily</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>meta-analytic</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>introduces</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>conducive</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>conducting</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>formulate</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>furthermore</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>high-quality</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>interpret</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>nearly</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
           <t>calculate</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>meta-analyses</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>methodological</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>publication</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>qualified</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>topic</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>introduce</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analyses</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>interpret</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>conducive</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>brief</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>nominations</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>pervasive</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>bias</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>psychometrics</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>roc</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>multilevel</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>watching</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>advancements</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>extract</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>choose</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>time-consuming</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>analyze</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>introduces</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>bias</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>brief</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>high-quality</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness/sensitivity</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>interchangeable</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>diagnostic</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analytic</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>search</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>watching</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>multilevel</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>alone</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>recent</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>video</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>qualified</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>publication</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>formulate</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>urgently</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>nonviolent</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>retracted</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>nonviolent</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>conducting</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>methodological</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>furthermore</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>interrelationship</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>aged</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>already</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>instance</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>grade-skippers</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>bettered</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>challenging</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>generally</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>class-</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>demanding</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>interviewees</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>sufficiently</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>things</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>subject-specific</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>soon</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>social-emotional</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>adequately</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>skipping</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
         <is>
           <t>skipped</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>germany</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>interviewees</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>grade-skippers</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>interrelationship</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>instance</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
         <is>
           <t>perceived</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>sufficiently</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>class-</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>specialized</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>subject-specific</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>bettered</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>opportunities</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>n't</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
         <is>
           <t>added</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>adequately</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>already</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>aged</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>things</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>instruments</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>n't</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="SD1" s="1" t="inlineStr">
         <is>
           <t>wrong</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>feeling</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>skipping</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>respond</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>demanding</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>confidence</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>opportunities</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>correlational</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>social-emotional</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>soon</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>behaviors</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>lens</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>articles</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>websites</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>calculated</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>comparing</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualize</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>dabrowski</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrating</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>existence</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness-overexcitability</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>imaginational</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>investigating</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>harmful</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>popular</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>presented</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>pronounced</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>psychomotor</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>sensual</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>skeptical</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>stated</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>textbooks</t>
         </is>
       </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>harmful</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>under</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>urgently</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>sensual</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
         <is>
           <t>10-year-old</t>
         </is>
       </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>responses</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>psychomotor</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>pronounced</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>popular</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>longer</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>websites</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>lens</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>investigating</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>imaginational</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness-overexcitability</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>existence</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>dabrowski</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualize</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>comparing</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>calculated</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>behaviors</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>articles</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>skeptical</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>stated</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>missed</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>cause</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>comprehensive</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>costly</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>easily</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>efficacy</t>
-        </is>
-      </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>exceed</t>
+          <t>35</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>integrity</t>
+          <t>self-worth</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>larger</t>
+          <t>early</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>limit</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>nearly</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>group</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>numbers</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>pervasive</t>
+          <t>participate</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>high-performing</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>psychometrics</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>receive</t>
+          <t>indicating</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>roc</t>
+          <t>find</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>dimensional</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>time-consuming</t>
+          <t>netherlands</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>nominated</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
+          <t>deficiencies</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>posits</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>subgroups</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>organizing</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>subsamples</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>achieving</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>theory-based</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>additionally</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>underachievers</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>sustain</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>combinations</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>typically</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>properties</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>programming/service</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>operated</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>analytical</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>capacities</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>analyzed</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>3-year</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>assumption</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>audio-recorded</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>collected</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>comparative</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>corpus</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>cyclic</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>inductive</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>interpretation</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>interpretive</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>interrogating</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>lesson</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>linking</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>manner</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>observations</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
           <t>tested</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>subsamples</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>subgroups</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>self-worth</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>selection</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>reverse</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>participate</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>nonverbal</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>nominated</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>netherlands</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>high-performing</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>feelings</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>create</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>combinations</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>additionally</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>achieving</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>acceptance</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>acknowledged</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>self-regulation</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>taught</t>
         </is>
       </c>
-      <c r="VO1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
         <is>
           <t>written</t>
         </is>
       </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>constant</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>corpus</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>cyclic</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>inductive</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>interpretation</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>underachievers</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>interpretive</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>interrogating</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>lesson</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>linking</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>manner</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>comparative</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>audio-recorded</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>assumption</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>3-year</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>operated</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>organizing</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>participant</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>self-regulation</t>
-        </is>
-      </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
           <t>tactics</t>
         </is>
       </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>typically</t>
-        </is>
-      </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
+          <t>age/developmental</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical/theoretical</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>35,271</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>adhd</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>outsiders</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>depressionand</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>deficit</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>persuade</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>every</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>hyperactivity</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>-.06</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>-.15</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>controversy</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>.02</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>laypeople</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>caveats</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>plain</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>plans</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>applying</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>adjust</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>20th</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>records</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>sight</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>zealand</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>transition</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>timely</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>constructs</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>long-standing</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>differentiation</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>long-term</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>psychopathologiesadhd</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>lived</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>keep</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>reveal</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>sense</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>substantial</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>uncover</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>variability</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>varied</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>integrating</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>paradoxical</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>grounding</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>expressed</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>excellent</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>ends</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>broad-based</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>tradition</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>stigma</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>accompanied</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>subjective</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>varying</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>vignette</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>wealth</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>upon</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>transform</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>centered</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>repeated-measures</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>sustains</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>scale-up</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>research-based</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>purposefully</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>barriers</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>respects</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>rated</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>capability</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>girl/boy</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>8/15</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>achievement-relevant</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>actualization</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>between-subjects</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>emotionally</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>fictitious</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>gifted/average</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>inferior</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>prove</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>invariance</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>latent</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>maladjusted</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>obvious</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>overly</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>pressure</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>prosocial</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>prosociality</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>capabilities</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>track</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>growing</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
           <t>goals</t>
         </is>
       </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>extends</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>understood</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>underidentification</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>strengthens</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>continuity</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>innovative</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>reluctant</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>documents</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>conversations</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>continued</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>reincorporate</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>hidden</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>predictor</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>cld-gifted</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>impactful</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>spearman</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>handover</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
         <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>stigma</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>point</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
         <is>
           <t>populations/underserved</t>
         </is>
       </c>
-      <c r="XD1" s="1" t="inlineStr">
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>matters</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>difficulties</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>disruption</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>detrimental</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
         <is>
           <t>powerful</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>principal</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>respects</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>repeated-measures</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>prove</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>prosociality</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>prosocial</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>overly</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>obvious</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>maladjusted</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>zealand</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>voice</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>subjective</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>varied</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>variability</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>controversy</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>extends</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>deficit</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>depressionand</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>disorder</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>every</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>argument</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>applying</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>laypeople</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>adjust</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>long-standing</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>vignette</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>varying</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>psychopathologiesadhd</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>reveal</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>sense</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>substantial</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>uncover</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>timely</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>sight</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>scale-up</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>accurate</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>girl/boy</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/average</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>accompanied</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>sustains</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>takes</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>fictitious</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>empirical</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>emotionally</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>track</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>tradition</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>transform</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>wealth</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>between-subjects</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>actualization</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>achievement-relevant</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>8/15</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>barriers</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>inferior</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>invariance</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>handover</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>records</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>plain</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>paradoxical</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>lived</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>journal</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>20th</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>purposefully</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>hidden</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>capabilities</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>react</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>research-based</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>disruption</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>latent</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>detrimental</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
+      <c r="AEE1" s="1" t="inlineStr">
         <is>
           <t>dependent</t>
         </is>
       </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>continuity</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>capability</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>deficiencies</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>act</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>indicating</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>inquiry</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
         <is>
           <t>insight</t>
         </is>
       </c>
-      <c r="ABX1" s="1" t="inlineStr">
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>involvement</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
         <is>
           <t>investigators</t>
         </is>
       </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>involvement</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>dimensional</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>delivery</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
+      <c r="AEK1" s="1" t="inlineStr">
         <is>
           <t>leaders</t>
         </is>
       </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>capacities</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
+      <c r="AEL1" s="1" t="inlineStr">
         <is>
           <t>leadership</t>
         </is>
       </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>learned</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>between</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>analytical</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>age/developmental</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>acknowledged</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>posits</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>underidentification</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>continue</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>examination</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>element</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>documents</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>conversations</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>growing</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>continued</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>cld-gifted</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>centered</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>theory-based</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>sustain</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>impactful</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>innovative</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>broad-based</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>properties</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>programming/service</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>understood</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>hyperactivity</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>traits</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>constructs</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>keep</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>into</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>integrating</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>expressed</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>excellent</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>ends</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>differentiation</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>matters</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>links</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>-.06</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>-.15</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>.02</t>
-        </is>
-      </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>35,271</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>7.626</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>adhd</t>
+          <t>9-to</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>caveats</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>grounding</t>
+          <t>.006</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>outsiders</t>
+          <t>adequate</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>performing</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>display</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>reincorporate</t>
+          <t>always</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>plans</t>
+          <t>performed</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>susceptible</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>philosophical/theoretical</t>
+          <t>unexpected</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>persuade</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>relevant</t>
+          <t>occurred</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>might</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>reluctant</t>
+          <t>argues</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>spearman</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>carried</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>strengthens</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>long-term</t>
+          <t>talk</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>9-to</t>
+          <t>similarity</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>7.626</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>show</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>accordingly</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>according</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>461</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>312</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>.006</t>
+          <t>149</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>additional</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>certain</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>adequate</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>affect</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>synthesized</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>argues</t>
+          <t>serving</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>carried</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>must</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>display</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>largest</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>performing</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>descriptions</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>derived</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>performed</t>
+          <t>backed</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>perform</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>occurred</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>adolescents</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>align</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>facet</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>uninterpretable</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>well-researched</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>separate-factor</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>separate</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>seems</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>modeled</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>joint-factor</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
           <t>joint</t>
         </is>
       </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>prone</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>align</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>uninterpretable</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>well-researched</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>accordingly</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>according</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>backed</t>
-        </is>
-      </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>susceptible</t>
+          <t>interpretable</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>inner</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>guiding</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>exploratory</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>analogous</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
+          <t>encompass</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>displays</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>disintegration</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>conceptually</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>competing</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>than</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>talk</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>analogous</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>appear</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>interpretable</t>
-        </is>
-      </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>inner</t>
+          <t>entails</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>modeled</t>
+          <t>efficient</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>guiding</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>facet</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>exploratory</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>focused</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>encompass</t>
+          <t>guidelines</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>displays</t>
+          <t>index</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>disintegration</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>conceptually</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>competing</t>
+          <t>convergence</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>seems</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>separate</t>
+          <t>consecutively</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>separate-factor</t>
+          <t>concurrently</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>similarity</t>
+          <t>collecting</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>another</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>largest</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>serving</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>unexpected</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>valuable</t>
+          <t>.30</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>derived</t>
+          <t>lacks</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>descriptions</t>
+          <t>self-ratings</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>synthesized</t>
+          <t>metrics</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>otherwise</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>grab</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>eliminated</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>detract</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>joint-factor</t>
+          <t>cues</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>cues</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>assigned</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>advantage</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AJE1" s="1" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>12-minute</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>6-week</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>association</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>classes</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>completing</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>genders</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>increased</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>scored</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>immediately</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>impair</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
+          <t>insulated</t>
+        </is>
+      </c>
+      <c r="AJV1" s="1" t="inlineStr">
+        <is>
+          <t>tend</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>pearson</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>proportional</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
+          <t>quadrants</t>
+        </is>
+      </c>
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
+          <t>ratings</t>
+        </is>
+      </c>
+      <c r="AKC1" s="1" t="inlineStr">
+        <is>
+          <t>regularity</t>
+        </is>
+      </c>
+      <c r="AKD1" s="1" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="AKE1" s="1" t="inlineStr">
+        <is>
+          <t>replacing</t>
+        </is>
+      </c>
+      <c r="AKF1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="AKG1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="AKH1" s="1" t="inlineStr">
+        <is>
+          <t>three-level</t>
+        </is>
+      </c>
+      <c r="AKI1" s="1" t="inlineStr">
+        <is>
           <t>iq</t>
         </is>
       </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>eliminated</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>detract</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>grab</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>.30</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>assigned</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>allow</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>collecting</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>concurrently</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>advantage</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>completing</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>genders</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>does</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>classes</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>6-week</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>12-minute</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>convergence</t>
-        </is>
-      </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>consecutively</t>
+          <t>yielded</t>
         </is>
       </c>
       <c r="AKL1" s="1" t="inlineStr">
         <is>
-          <t>efficient</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="AKM1" s="1" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>vulnerable</t>
         </is>
       </c>
       <c r="AKN1" s="1" t="inlineStr">
         <is>
-          <t>quadrants</t>
+          <t>vol</t>
         </is>
       </c>
       <c r="AKO1" s="1" t="inlineStr">
         <is>
-          <t>regularity</t>
+          <t>typical</t>
         </is>
       </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>shows</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>replacing</t>
+          <t>see</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>self-ratings</t>
+          <t>randomly</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>outperformed</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>shows</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>randomly</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>three-level</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>tools</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
           <t>pg</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>yielded</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>immediately</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>impair</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>insulated</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>outperformed</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>proportional</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>despite</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>pearson</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>entails</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>guidelines</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>lacks</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>metrics</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>watch</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>vulnerable</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>vol</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>otherwise</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>overlap</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>replace</t>
         </is>
       </c>
     </row>
@@ -5543,10 +5363,10 @@
         <v>1.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="H2" t="n">
         <v>0.6499999999999999</v>
@@ -5555,7 +5375,7 @@
         <v>0.64</v>
       </c>
       <c r="J2" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="K2" t="n">
         <v>0.62</v>
@@ -5564,7 +5384,7 @@
         <v>0.62</v>
       </c>
       <c r="M2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="N2" t="n">
         <v>0.59</v>
@@ -5576,7 +5396,7 @@
         <v>0.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="R2" t="n">
         <v>0.52</v>
@@ -5588,16 +5408,16 @@
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.49</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>0.4899999999999999</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.4899999999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.48</v>
       </c>
       <c r="Y2" t="n">
         <v>0.47</v>
@@ -5606,19 +5426,19 @@
         <v>0.46</v>
       </c>
       <c r="AA2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.44</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.43</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.42</v>
-      </c>
       <c r="AE2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AF2" t="n">
         <v>0.42</v>
@@ -5627,7 +5447,7 @@
         <v>0.42</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="AI2" t="n">
         <v>0.41</v>
@@ -5639,10 +5459,10 @@
         <v>0.4</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AN2" t="n">
         <v>0.39</v>
@@ -5654,31 +5474,31 @@
         <v>0.39</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AW2" t="n">
         <v>0.36</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.34</v>
@@ -5687,7 +5507,7 @@
         <v>0.34</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="BC2" t="n">
         <v>0.33</v>
@@ -5696,7 +5516,7 @@
         <v>0.33</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="BF2" t="n">
         <v>0.32</v>
@@ -5708,19 +5528,19 @@
         <v>0.32</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BN2" t="n">
         <v>0.31</v>
@@ -5732,7 +5552,7 @@
         <v>0.31</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="BR2" t="n">
         <v>0.3</v>
@@ -5774,19 +5594,19 @@
         <v>0.29</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CJ2" t="n">
         <v>0.27</v>
@@ -5795,7 +5615,7 @@
         <v>0.27</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="CM2" t="n">
         <v>0.26</v>
@@ -5810,7 +5630,7 @@
         <v>0.26</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="CR2" t="n">
         <v>0.25</v>
@@ -5843,7 +5663,7 @@
         <v>0.25</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DC2" t="n">
         <v>0.24</v>
@@ -5870,7 +5690,7 @@
         <v>0.24</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="DL2" t="n">
         <v>0.23</v>
@@ -5900,16 +5720,16 @@
         <v>0.23</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DY2" t="n">
         <v>0.22</v>
@@ -5957,10 +5777,10 @@
         <v>0.21</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EP2" t="n">
         <v>0.2</v>
@@ -6020,7 +5840,7 @@
         <v>0.2</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.19</v>
@@ -6056,19 +5876,19 @@
         <v>0.19</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FZ2" t="n">
         <v>0.18</v>
@@ -6095,25 +5915,25 @@
         <v>0.18</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="GO2" t="n">
         <v>0.17</v>
@@ -6179,16 +5999,16 @@
         <v>0.17</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HN2" t="n">
         <v>0.16</v>
@@ -6284,13 +6104,13 @@
         <v>0.16</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="IV2" t="n">
         <v>0.15</v>
@@ -6347,7 +6167,7 @@
         <v>0.15</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="JO2" t="n">
         <v>0.14</v>
@@ -6422,7 +6242,7 @@
         <v>0.14</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="KN2" t="n">
         <v>0.13</v>
@@ -6479,28 +6299,28 @@
         <v>0.13</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LN2" t="n">
         <v>0.12</v>
@@ -6644,55 +6464,55 @@
         <v>0.12</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="NZ2" t="n">
         <v>0.11</v>
@@ -6851,43 +6671,43 @@
         <v>0.11</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="QM2" t="n">
         <v>0.1</v>
@@ -7124,70 +6944,70 @@
         <v>0.1</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UI2" t="n">
         <v>0.09</v>
@@ -7391,7 +7211,7 @@
         <v>0.09</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="WY2" t="n">
         <v>0.08</v>
@@ -7982,91 +7802,91 @@
         <v>0.08</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFP2" t="n">
         <v>0.07000000000000001</v>
@@ -8234,100 +8054,100 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIY2" t="n">
         <v>0.06</v>
@@ -8474,114 +8294,6 @@
         <v>0.06</v>
       </c>
       <c r="AKU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AME2" t="n">
         <v>0.06</v>
       </c>
     </row>
